--- a/biology/Zoologie/Eleoscytalopus/Eleoscytalopus.xlsx
+++ b/biology/Zoologie/Eleoscytalopus/Eleoscytalopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleoscytalopus est un genre de passereaux de la famille des Rhinocryptidae qui ne comprend que deux espèces endémiques du Brésil.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 Eleoscytalopus indigoticus (Wied-Neuwied, 1831) - Mérulaxe à poitrine blanche
 Eleoscytalopus psychopompus (Teixeira &amp; Carnevalli, 1989) - Mérulaxe du Bahia</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Giovanni Nachtigall Maurício, Helena Mata, Marcos R. Bornschein, Carlos Daniel Cadena, Herculano Alvarenga et Sandro L. Bonatto, « Hidden generic diversity in Neotropical birds: molecular and anatomical data support a new genus for the "Scytalopus"indigoticus species-group (Aves: Rhinocryptidae) », Molecular Phylogenetics and Evolution, Academic Press et Elsevier, vol. 49, no 1,‎ 2 juillet 2008, p. 125-135 (ISSN 1055-7903 et 1095-9513, PMID 18644455, DOI 10.1016/J.YMPEV.2008.06.017, lire en ligne)</t>
         </is>
